--- a/Systems' CBA.xlsx
+++ b/Systems' CBA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyad2\Desktop\AEOA_Project1_SAD_20232024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C58F0D-883E-4B63-912F-FB0BB6714BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5BD4B1-CF64-4B65-8B7F-43E68017582D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>COSTS</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t xml:space="preserve">total </t>
+  </si>
+  <si>
+    <t>Since the PI Is more than 1 it is a good investment</t>
   </si>
 </sst>
 </file>
@@ -276,11 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,6 +342,10 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -352,9 +355,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H28"/>
+  <dimension ref="A3:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -648,192 +648,160 @@
   <sheetData>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="33"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>10000</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <f xml:space="preserve"> C6</f>
         <v>10000</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <f xml:space="preserve"> C7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>10000</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <f xml:space="preserve"> C8</f>
         <v>10000</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="1">
         <v>10000</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="D9" s="10">
+        <v>10000</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="1">
         <v>20000</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="D10" s="10">
+        <v>20000</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="28"/>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <f xml:space="preserve"> D6 + D7 + D8 + D9 + D10</f>
         <v>50000</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>500</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <f xml:space="preserve"> C13</f>
         <v>500</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <f>E13</f>
         <v>500</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <f>F13</f>
         <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>2000</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <f xml:space="preserve"> C14</f>
         <v>2000</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <f>E14</f>
         <v>2000</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <f>F14</f>
         <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>20000</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <f xml:space="preserve"> C15</f>
         <v>20000</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <f>E15</f>
         <v>20000</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <f xml:space="preserve"> F15</f>
         <v>20000</v>
       </c>
@@ -844,223 +812,205 @@
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <f xml:space="preserve"> E13 + E14 +E15</f>
         <v>22500</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <f xml:space="preserve"> F13 + F14 + F15</f>
         <v>22500</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <f xml:space="preserve"> G13 + G14 +  G15</f>
         <v>22500</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="8">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="6">
         <f xml:space="preserve"> E16*(1/(1+0.2)^1)</f>
         <v>18750</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <f>F16*(1/(1+0.2)^2)</f>
         <v>15625</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <f xml:space="preserve"> G15*(1/(1+0.2)^3)</f>
         <v>11574.074074074075</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17">
         <f xml:space="preserve"> D11 + E17</f>
         <v>68750</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="25">
         <f xml:space="preserve"> E18 + F17</f>
         <v>84375</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="25">
         <f>F18 + G17</f>
         <v>95949.074074074073</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
+    <row r="19" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="21" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>50000</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <f xml:space="preserve"> C22</f>
         <v>50000</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="7">
         <f xml:space="preserve"> E22</f>
         <v>50000</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="20">
         <f xml:space="preserve"> F22</f>
         <v>50000</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="32" t="s">
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>25000</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2">
+      <c r="E23">
         <f xml:space="preserve"> C23</f>
         <v>25000</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <f xml:space="preserve"> E23</f>
         <v>25000</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23">
         <f xml:space="preserve"> F23</f>
         <v>25000</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="32" t="s">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <f xml:space="preserve"> C22 + C23</f>
         <v>75000</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
+      <c r="E24">
         <f>E22 + E23</f>
         <v>75000</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24">
         <f xml:space="preserve"> F22 + F23</f>
         <v>75000</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="26">
         <f xml:space="preserve"> G22 + G23</f>
         <v>75000</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23">
         <f xml:space="preserve"> E24*(1/(1+0.2)^1)</f>
         <v>62500</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="23">
         <f xml:space="preserve"> F24*(1/(1+0.2)^2)</f>
         <v>52083.333333333328</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="23">
         <f xml:space="preserve"> G24*(1/(1+0.2)^3)</f>
         <v>43402.777777777781</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="33">
+      <c r="E26" s="26">
         <f xml:space="preserve"> E25</f>
         <v>62500</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="26">
         <f xml:space="preserve"> E26 + F25</f>
         <v>114583.33333333333</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="26">
         <f xml:space="preserve"> F26 +G25</f>
         <v>157986.11111111112</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="6">
+      <c r="E27" s="4">
         <f>E26 - E18</f>
         <v>-6250</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="4">
         <f xml:space="preserve"> F26 - F18</f>
         <v>30208.333333333328</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="4">
         <f xml:space="preserve"> G26 - G18</f>
         <v>62037.037037037051</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8">
-        <v>0.40297252378566489</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="6">
+        <f xml:space="preserve"> G27 / D11</f>
+        <v>1.2407407407407409</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Systems' CBA.xlsx
+++ b/Systems' CBA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyad2\Desktop\AEOA_Project1_SAD_20232024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5BD4B1-CF64-4B65-8B7F-43E68017582D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D40CC16-4CC8-4CE5-8363-411F3B6568C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10580" yWindow="710" windowWidth="10710" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="89" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,11 +676,11 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="D6" s="10">
         <f xml:space="preserve"> C6</f>
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="H6" s="4"/>
     </row>
@@ -689,11 +689,11 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D7" s="10">
         <f xml:space="preserve"> C7</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -701,11 +701,11 @@
         <v>19</v>
       </c>
       <c r="C8" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D8" s="10">
         <f xml:space="preserve"> C8</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -713,10 +713,11 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="D9" s="10">
-        <v>10000</v>
+        <f xml:space="preserve"> C9</f>
+        <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -725,10 +726,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="1">
-        <v>20000</v>
+        <v>7500</v>
       </c>
       <c r="D10" s="10">
-        <v>20000</v>
+        <f xml:space="preserve"> C10</f>
+        <v>7500</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -738,7 +740,7 @@
       <c r="C11" s="28"/>
       <c r="D11" s="2">
         <f xml:space="preserve"> D6 + D7 + D8 + D9 + D10</f>
-        <v>50000</v>
+        <v>47500</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -852,15 +854,15 @@
       <c r="D18" s="17"/>
       <c r="E18" s="17">
         <f xml:space="preserve"> D11 + E17</f>
-        <v>68750</v>
+        <v>66250</v>
       </c>
       <c r="F18" s="25">
         <f xml:space="preserve"> E18 + F17</f>
-        <v>84375</v>
+        <v>81875</v>
       </c>
       <c r="G18" s="25">
         <f>F18 + G17</f>
-        <v>95949.074074074073</v>
+        <v>93449.074074074073</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -986,15 +988,15 @@
       </c>
       <c r="E27" s="4">
         <f>E26 - E18</f>
-        <v>-6250</v>
+        <v>-3750</v>
       </c>
       <c r="F27" s="4">
         <f xml:space="preserve"> F26 - F18</f>
-        <v>30208.333333333328</v>
+        <v>32708.333333333328</v>
       </c>
       <c r="G27" s="4">
         <f xml:space="preserve"> G26 - G18</f>
-        <v>62037.037037037051</v>
+        <v>64537.037037037051</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -1004,7 +1006,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="6">
         <f xml:space="preserve"> G27 / D11</f>
-        <v>1.2407407407407409</v>
+        <v>1.358674463937622</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">

--- a/Systems' CBA.xlsx
+++ b/Systems' CBA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyad2\Desktop\AEOA_Project1_SAD_20232024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D40CC16-4CC8-4CE5-8363-411F3B6568C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167F5131-6F67-462A-8193-A8347C410EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10580" yWindow="710" windowWidth="10710" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +163,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -279,15 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -326,7 +326,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,18 +342,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="89" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="74" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -648,219 +660,222 @@
   <sheetData>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="26"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>20000</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <f xml:space="preserve"> C6</f>
         <v>20000</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1">
         <v>10000</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <f xml:space="preserve"> C7</f>
         <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>5000</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <f xml:space="preserve"> C8</f>
         <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1">
         <v>5000</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <f xml:space="preserve"> C9</f>
         <v>5000</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>7500</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <f xml:space="preserve"> C10</f>
         <v>7500</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="2">
+      <c r="C11" s="29"/>
+      <c r="D11" s="30">
         <f xml:space="preserve"> D6 + D7 + D8 + D9 + D10</f>
         <v>47500</v>
       </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="1">
         <v>500</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <f xml:space="preserve"> C13</f>
         <v>500</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <f>E13</f>
         <v>500</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <f>F13</f>
         <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="1">
         <v>2000</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <f xml:space="preserve"> C14</f>
         <v>2000</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <f>E14</f>
         <v>2000</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <f>F14</f>
         <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="1">
         <v>20000</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <f xml:space="preserve"> C15</f>
         <v>20000</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <f>E15</f>
         <v>20000</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <f xml:space="preserve"> F15</f>
         <v>20000</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="5">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="3">
         <f xml:space="preserve"> E13 + E14 +E15</f>
         <v>22500</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <f xml:space="preserve"> F13 + F14 + F15</f>
         <v>22500</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <f xml:space="preserve"> G13 + G14 +  G15</f>
         <v>22500</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="6">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="4">
         <f xml:space="preserve"> E16*(1/(1+0.2)^1)</f>
         <v>18750</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="11">
         <f>F16*(1/(1+0.2)^2)</f>
         <v>15625</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="11">
         <f xml:space="preserve"> G15*(1/(1+0.2)^3)</f>
         <v>11574.074074074075</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17">
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15">
         <f xml:space="preserve"> D11 + E17</f>
         <v>66250</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="22">
         <f xml:space="preserve"> E18 + F17</f>
         <v>81875</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="22">
         <f>F18 + G17</f>
         <v>93449.074074074073</v>
       </c>
@@ -868,39 +883,39 @@
     <row r="19" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="21" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="5">
         <v>50000</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <f xml:space="preserve"> C22</f>
         <v>50000</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <f xml:space="preserve"> E22</f>
         <v>50000</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="17">
         <f xml:space="preserve"> F22</f>
         <v>50000</v>
       </c>
@@ -941,73 +956,78 @@
         <f xml:space="preserve"> F22 + F23</f>
         <v>75000</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="23">
         <f xml:space="preserve"> G22 + G23</f>
         <v>75000</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20">
         <f xml:space="preserve"> E24*(1/(1+0.2)^1)</f>
         <v>62500</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="20">
         <f xml:space="preserve"> F24*(1/(1+0.2)^2)</f>
         <v>52083.333333333328</v>
       </c>
-      <c r="G25" s="23">
+      <c r="G25" s="20">
         <f xml:space="preserve"> G24*(1/(1+0.2)^3)</f>
         <v>43402.777777777781</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="23">
         <f xml:space="preserve"> E25</f>
         <v>62500</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="23">
         <f xml:space="preserve"> E26 + F25</f>
         <v>114583.33333333333</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="23">
         <f xml:space="preserve"> F26 +G25</f>
         <v>157986.11111111112</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" t="s">
+      <c r="B27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="4">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27">
         <f>E26 - E18</f>
         <v>-3750</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="27">
         <f xml:space="preserve"> F26 - F18</f>
         <v>32708.333333333328</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="27">
         <f xml:space="preserve"> G26 - G18</f>
         <v>64537.037037037051</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="6">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33">
         <f xml:space="preserve"> G27 / D11</f>
         <v>1.358674463937622</v>
       </c>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
